--- a/2022_forecast/text/model_averaging/model_summary_table_model_averaging_MAPE.xlsx
+++ b/2022_forecast/text/model_averaging/model_summary_table_model_averaging_MAPE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\preseason_SEAK_pink_salmon_forecast\2022_forecast\text\model_averaging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B36B3EE0-27BD-4ADE-B84A-AE6BAEF03A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBC7674-2DCD-49AF-B16B-153F8E0260E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="model averaging" sheetId="1" r:id="rId1"/>
@@ -1296,9 +1296,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1326,13 +1323,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1692,73 +1692,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AB38" sqref="AB38"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="25.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="8.7265625" style="1"/>
-    <col min="11" max="11" width="13.453125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.453125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="8.7109375" style="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.7109375" style="1"/>
     <col min="19" max="19" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" style="1"/>
-    <col min="21" max="21" width="25.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.26953125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="35.08984375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="5.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.08984375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="24.7265625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" style="1"/>
+    <col min="21" max="21" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="35.140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="24.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C2" s="20" t="s">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C2" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="K2" s="20" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="K2" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="N2" s="20" t="s">
+      <c r="L2" s="31"/>
+      <c r="N2" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="Q2" s="20" t="s">
+      <c r="O2" s="31"/>
+      <c r="Q2" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="W2" s="20" t="s">
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="W2" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="X2" s="20"/>
-      <c r="Z2" s="20" t="s">
+      <c r="X2" s="31"/>
+      <c r="Z2" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="AA2" s="20"/>
+      <c r="AA2" s="31"/>
     </row>
-    <row r="3" spans="1:27" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>61</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1869,11 +1869,11 @@
       <c r="I4" s="3">
         <v>21</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="20">
         <f>D4*SQRT(I4+1)</f>
         <v>0.44125196358416779</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="20">
         <f>M4-(1.28*J4)</f>
         <v>2.7518553741154053</v>
       </c>
@@ -1881,7 +1881,7 @@
         <f>M4+(1.28*J4)</f>
         <v>3.8814604008908749</v>
       </c>
-      <c r="M4" s="24">
+      <c r="M4" s="23">
         <f>C4+((H4*H4)/2)</f>
         <v>3.3166578875031401</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>38.572831095384792</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
@@ -1969,11 +1969,11 @@
       <c r="I5" s="8">
         <v>20</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="21">
         <f t="shared" ref="J5:J28" si="4">D5*SQRT(I5+1)</f>
         <v>0.34150427815166801</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="21">
         <f t="shared" ref="K5:K28" si="5">M5-(1.28*J5)</f>
         <v>2.7403650830531645</v>
       </c>
@@ -1981,7 +1981,7 @@
         <f t="shared" ref="L5:L28" si="6">M5+(1.28*J5)</f>
         <v>3.6146160351214349</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="24">
         <f t="shared" ref="M5:M28" si="7">C5+((H5*H5)/2)</f>
         <v>3.1774905590872997</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="O5" s="11">
-        <f t="shared" ref="O4:O28" si="8">N5/SUM($N$4:$N$28)</f>
+        <f t="shared" ref="O5:O28" si="8">N5/SUM($N$4:$N$28)</f>
         <v>5.1164431898376848E-2</v>
       </c>
       <c r="P5" s="9" cm="1">
@@ -2041,7 +2041,7 @@
         <v>38.572831095384792</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -2069,11 +2069,11 @@
       <c r="I6" s="8">
         <v>20</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="21">
         <f t="shared" si="4"/>
         <v>0.33420297662982512</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="21">
         <f t="shared" si="5"/>
         <v>2.7331299730054437</v>
       </c>
@@ -2081,7 +2081,7 @@
         <f t="shared" si="6"/>
         <v>3.5886895931777958</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="24">
         <f t="shared" si="7"/>
         <v>3.1609097830916197</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>38.572831095384792</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
@@ -2169,11 +2169,11 @@
       <c r="I7" s="8">
         <v>20</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="21">
         <f t="shared" si="4"/>
         <v>0.32744497191082128</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="21">
         <f t="shared" si="5"/>
         <v>2.7420923499627987</v>
       </c>
@@ -2181,7 +2181,7 @@
         <f t="shared" si="6"/>
         <v>3.5803514780545012</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="24">
         <f t="shared" si="7"/>
         <v>3.1612219140086499</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>38.572831095384792</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
@@ -2269,11 +2269,11 @@
       <c r="I8" s="8">
         <v>20</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="21">
         <f t="shared" si="4"/>
         <v>0.31591041767605743</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="21">
         <f t="shared" si="5"/>
         <v>2.7734511619252764</v>
       </c>
@@ -2281,7 +2281,7 @@
         <f t="shared" si="6"/>
         <v>3.5821818311759834</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="24">
         <f t="shared" si="7"/>
         <v>3.1778164965506299</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>38.572831095384792</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>21</v>
       </c>
@@ -2369,11 +2369,11 @@
       <c r="I9" s="8">
         <v>20</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="21">
         <f t="shared" si="4"/>
         <v>0.40120834863524285</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="21">
         <f t="shared" si="5"/>
         <v>2.9353391474087092</v>
       </c>
@@ -2381,7 +2381,7 @@
         <f t="shared" si="6"/>
         <v>3.9624325199149304</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M9" s="24">
         <f>C9+((H9*H9)/2)</f>
         <v>3.4488858336618198</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>38.572831095384792</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>23</v>
       </c>
@@ -2469,11 +2469,11 @@
       <c r="I10" s="8">
         <v>20</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="21">
         <f t="shared" si="4"/>
         <v>0.34969287556124179</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="21">
         <f t="shared" si="5"/>
         <v>2.9671859252749702</v>
       </c>
@@ -2481,7 +2481,7 @@
         <f t="shared" si="6"/>
         <v>3.8623996867117496</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="24">
         <f t="shared" si="7"/>
         <v>3.4147928059933599</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>38.572831095384792</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
@@ -2569,11 +2569,11 @@
       <c r="I11" s="8">
         <v>20</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="21">
         <f t="shared" si="4"/>
         <v>0.31324881871428994</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="21">
         <f t="shared" si="5"/>
         <v>2.9728955533323287</v>
       </c>
@@ -2581,7 +2581,7 @@
         <f t="shared" si="6"/>
         <v>3.7748125292409114</v>
       </c>
-      <c r="M11" s="25">
+      <c r="M11" s="24">
         <f t="shared" si="7"/>
         <v>3.37385404128662</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>38.572831095384792</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>27</v>
       </c>
@@ -2669,11 +2669,11 @@
       <c r="I12" s="8">
         <v>20</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="21">
         <f t="shared" si="4"/>
         <v>0.29121253350943116</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="21">
         <f t="shared" si="5"/>
         <v>2.9694297091813779</v>
       </c>
@@ -2681,7 +2681,7 @@
         <f t="shared" si="6"/>
         <v>3.7149337949655217</v>
       </c>
-      <c r="M12" s="25">
+      <c r="M12" s="24">
         <f t="shared" si="7"/>
         <v>3.3421817520734498</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>38.572831095384792</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>28</v>
       </c>
@@ -2769,11 +2769,11 @@
       <c r="I13" s="8">
         <v>20</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="21">
         <f t="shared" si="4"/>
         <v>0.33149187620938431</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="21">
         <f t="shared" si="5"/>
         <v>2.5209021300119381</v>
       </c>
@@ -2781,7 +2781,7 @@
         <f t="shared" si="6"/>
         <v>3.3695213331079619</v>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="24">
         <f t="shared" si="7"/>
         <v>2.94521173155995</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>38.572831095384792</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>29</v>
       </c>
@@ -2869,11 +2869,11 @@
       <c r="I14" s="8">
         <v>20</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="21">
         <f t="shared" si="4"/>
         <v>0.34361816174785681</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="21">
         <f t="shared" si="5"/>
         <v>2.7202618126854032</v>
       </c>
@@ -2881,7 +2881,7 @@
         <f t="shared" si="6"/>
         <v>3.5999243067599167</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M14" s="24">
         <f t="shared" si="7"/>
         <v>3.16009305972266</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>38.572831095384792</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>30</v>
       </c>
@@ -2969,11 +2969,11 @@
       <c r="I15" s="8">
         <v>20</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="21">
         <f t="shared" si="4"/>
         <v>0.29503080880175714</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="21">
         <f t="shared" si="5"/>
         <v>2.752788270046481</v>
       </c>
@@ -2981,7 +2981,7 @@
         <f t="shared" si="6"/>
         <v>3.5080671405789792</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15" s="24">
         <f t="shared" si="7"/>
         <v>3.1304277053127301</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>38.572831095384792</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>31</v>
       </c>
@@ -3069,11 +3069,11 @@
       <c r="I16" s="8">
         <v>20</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="21">
         <f t="shared" si="4"/>
         <v>0.31001476281507617</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="21">
         <f t="shared" si="5"/>
         <v>2.7800871600511226</v>
       </c>
@@ -3081,7 +3081,7 @@
         <f t="shared" si="6"/>
         <v>3.5737249528577175</v>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="24">
         <f t="shared" si="7"/>
         <v>3.17690605645442</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>38.572831095384792</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>32</v>
       </c>
@@ -3169,11 +3169,11 @@
       <c r="I17" s="8">
         <v>20</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="21">
         <f t="shared" si="4"/>
         <v>0.36896132807331394</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="21">
         <f t="shared" si="5"/>
         <v>2.4301240675491385</v>
       </c>
@@ -3181,7 +3181,7 @@
         <f t="shared" si="6"/>
         <v>3.3746650674168222</v>
       </c>
-      <c r="M17" s="25">
+      <c r="M17" s="24">
         <f t="shared" si="7"/>
         <v>2.9023945674829803</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>38.572831095384792</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>34</v>
       </c>
@@ -3269,11 +3269,11 @@
       <c r="I18" s="8">
         <v>20</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="21">
         <f t="shared" si="4"/>
         <v>0.38006845720369276</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="21">
         <f t="shared" si="5"/>
         <v>2.6074686232895132</v>
       </c>
@@ -3281,7 +3281,7 @@
         <f t="shared" si="6"/>
         <v>3.5804438737309665</v>
       </c>
-      <c r="M18" s="25">
+      <c r="M18" s="24">
         <f t="shared" si="7"/>
         <v>3.0939562485102399</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>38.572831095384792</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>36</v>
       </c>
@@ -3369,11 +3369,11 @@
       <c r="I19" s="8">
         <v>20</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="21">
         <f t="shared" si="4"/>
         <v>0.35958364198842724</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="21">
         <f t="shared" si="5"/>
         <v>2.5512650111165431</v>
       </c>
@@ -3381,7 +3381,7 @@
         <f t="shared" si="6"/>
         <v>3.4717991346069166</v>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="24">
         <f t="shared" si="7"/>
         <v>3.0115320728617299</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>38.572831095384792</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>62</v>
       </c>
@@ -3469,11 +3469,11 @@
       <c r="I20" s="8">
         <v>20</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="21">
         <f t="shared" si="4"/>
         <v>0.35513241931034462</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="21">
         <f t="shared" si="5"/>
         <v>2.6355185802182088</v>
       </c>
@@ -3481,7 +3481,7 @@
         <f t="shared" si="6"/>
         <v>3.5446575736526906</v>
       </c>
-      <c r="M20" s="25">
+      <c r="M20" s="24">
         <f t="shared" si="7"/>
         <v>3.0900880769354497</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>38.572831095384792</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>39</v>
       </c>
@@ -3569,11 +3569,11 @@
       <c r="I21" s="8">
         <v>20</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="21">
         <f t="shared" si="4"/>
         <v>0.36718113030343819</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="21">
         <f t="shared" si="5"/>
         <v>2.3959450809818792</v>
       </c>
@@ -3581,7 +3581,7 @@
         <f t="shared" si="6"/>
         <v>3.3359287745586812</v>
       </c>
-      <c r="M21" s="25">
+      <c r="M21" s="24">
         <f t="shared" si="7"/>
         <v>2.8659369277702802</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>38.572831095384792</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>41</v>
       </c>
@@ -3669,11 +3669,11 @@
       <c r="I22" s="8">
         <v>20</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="21">
         <f t="shared" si="4"/>
         <v>0.36046750546380552</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="21">
         <f t="shared" si="5"/>
         <v>2.6163725168959888</v>
       </c>
@@ -3681,7 +3681,7 @@
         <f t="shared" si="6"/>
         <v>3.5391693308833312</v>
       </c>
-      <c r="M22" s="25">
+      <c r="M22" s="24">
         <f t="shared" si="7"/>
         <v>3.07777092388966</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>38.572831095384792</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>43</v>
       </c>
@@ -3769,11 +3769,11 @@
       <c r="I23" s="8">
         <v>20</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="21">
         <f t="shared" si="4"/>
         <v>0.32630666006013903</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="21">
         <f t="shared" si="5"/>
         <v>2.6117868530122421</v>
       </c>
@@ -3781,7 +3781,7 @@
         <f t="shared" si="6"/>
         <v>3.447131902766198</v>
       </c>
-      <c r="M23" s="25">
+      <c r="M23" s="24">
         <f t="shared" si="7"/>
         <v>3.02945937788922</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>38.572831095384792</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>44</v>
       </c>
@@ -3869,11 +3869,11 @@
       <c r="I24" s="8">
         <v>20</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="21">
         <f t="shared" si="4"/>
         <v>0.33489060858823383</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K24" s="21">
         <f t="shared" si="5"/>
         <v>2.6567738649182906</v>
       </c>
@@ -3881,7 +3881,7 @@
         <f t="shared" si="6"/>
         <v>3.5140938229041692</v>
       </c>
-      <c r="M24" s="25">
+      <c r="M24" s="24">
         <f t="shared" si="7"/>
         <v>3.0854338439112299</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>38.572831095384792</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>45</v>
       </c>
@@ -3969,11 +3969,11 @@
       <c r="I25" s="8">
         <v>20</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25" s="21">
         <f t="shared" si="4"/>
         <v>0.40253073912266368</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="21">
         <f t="shared" si="5"/>
         <v>2.3572188864880501</v>
       </c>
@@ -3981,7 +3981,7 @@
         <f t="shared" si="6"/>
         <v>3.3876975786420691</v>
       </c>
-      <c r="M25" s="25">
+      <c r="M25" s="24">
         <f t="shared" si="7"/>
         <v>2.8724582325650596</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>38.572831095384792</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>46</v>
       </c>
@@ -4069,11 +4069,11 @@
       <c r="I26" s="8">
         <v>20</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="21">
         <f t="shared" si="4"/>
         <v>0.36522489522572971</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="21">
         <f t="shared" si="5"/>
         <v>2.6477954133919859</v>
       </c>
@@ -4081,7 +4081,7 @@
         <f t="shared" si="6"/>
         <v>3.5827711451698541</v>
       </c>
-      <c r="M26" s="25">
+      <c r="M26" s="24">
         <f t="shared" si="7"/>
         <v>3.11528327928092</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>38.572831095384792</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>48</v>
       </c>
@@ -4169,11 +4169,11 @@
       <c r="I27" s="8">
         <v>20</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="21">
         <f t="shared" si="4"/>
         <v>0.3428493246405323</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="21">
         <f t="shared" si="5"/>
         <v>2.6020361283075584</v>
       </c>
@@ -4181,7 +4181,7 @@
         <f t="shared" si="6"/>
         <v>3.4797303993873214</v>
       </c>
-      <c r="M27" s="25">
+      <c r="M27" s="24">
         <f t="shared" si="7"/>
         <v>3.0408832638474399</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>38.572831095384792</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>50</v>
       </c>
@@ -4269,11 +4269,11 @@
       <c r="I28" s="13">
         <v>20</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J28" s="22">
         <f t="shared" si="4"/>
         <v>0.34880841172950561</v>
       </c>
-      <c r="K28" s="23">
+      <c r="K28" s="22">
         <f t="shared" si="5"/>
         <v>2.6569800631511926</v>
       </c>
@@ -4281,7 +4281,7 @@
         <f t="shared" si="6"/>
         <v>3.5499295971787275</v>
       </c>
-      <c r="M28" s="26">
+      <c r="M28" s="25">
         <f t="shared" si="7"/>
         <v>3.10345483016496</v>
       </c>
@@ -4341,158 +4341,158 @@
         <v>38.572831095384792</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="28" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="29"/>
-      <c r="B34" s="31" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="28"/>
+      <c r="B34" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="31" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="32">
+      <c r="B35" s="30">
         <v>2.1475022560000001</v>
       </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
     </row>
-    <row r="36" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="31" t="s">
+    <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="F36" s="31" t="s">
+      <c r="F36" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G36" s="31" t="s">
+      <c r="G36" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H36" s="30" t="s">
+      <c r="H36" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="31" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="29">
+      <c r="C37" s="28">
         <v>2.2891817900000002</v>
       </c>
-      <c r="D37" s="29">
+      <c r="D37" s="28">
         <v>0.20799999999999999</v>
       </c>
-      <c r="E37" s="29">
+      <c r="E37" s="28">
         <v>11.019</v>
       </c>
-      <c r="F37" s="29">
+      <c r="F37" s="28">
         <v>0</v>
       </c>
-      <c r="G37" s="27">
+      <c r="G37" s="26">
         <f>C37+(C38*B35)</f>
         <v>3.2297133886498526</v>
       </c>
-      <c r="H37" s="27">
+      <c r="H37" s="26">
         <f>G37+((H4*H4)/2)</f>
         <v>3.3166578886498526</v>
       </c>
-      <c r="I37" s="27">
+      <c r="I37" s="26">
         <f>EXP(G37)*EXP(0.5*H4*H4)</f>
         <v>27.568060894037693</v>
       </c>
-      <c r="J37" s="27">
+      <c r="J37" s="26">
         <f>EXP(H37)</f>
         <v>27.568060894037689</v>
       </c>
-      <c r="K37" s="27">
+      <c r="K37" s="26">
         <f>LN(I37)</f>
         <v>3.3166578886498526</v>
       </c>
-      <c r="L37" s="27">
+      <c r="L37" s="26">
         <f>EXP(C37+C38*B35+0.5*H4*H4)</f>
         <v>27.568060894037689</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="31" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="29">
+      <c r="C38" s="28">
         <v>0.43796536000000003</v>
       </c>
-      <c r="D38" s="29">
+      <c r="D38" s="28">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="E38" s="29">
+      <c r="E38" s="28">
         <v>6.157</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="28">
         <v>0</v>
       </c>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">
